--- a/excel_exports/MP_ENTC_TYB.xlsx
+++ b/excel_exports/MP_ENTC_TYB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>Attendance %</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -625,10 +630,15 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -721,10 +731,15 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
   </sheetData>
